--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_197.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_197.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32612-d84227-Reviews-Days_Inn_Los_Angeles_LAX_Redondo_and_Manhattan_Beach-Lawndale_California.html</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>295</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-By-Wyndham-Los-Angeles-LAX-RedondoManhattanBeach.h24063.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_197.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_197.xlsx
@@ -4930,7 +4930,7 @@
         <v>21843</v>
       </c>
       <c r="B2" t="n">
-        <v>135601</v>
+        <v>166521</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -4995,7 +4995,7 @@
         <v>21843</v>
       </c>
       <c r="B3" t="n">
-        <v>135602</v>
+        <v>166522</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -5070,7 +5070,7 @@
         <v>21843</v>
       </c>
       <c r="B4" t="n">
-        <v>135603</v>
+        <v>166523</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -5135,7 +5135,7 @@
         <v>21843</v>
       </c>
       <c r="B5" t="n">
-        <v>135604</v>
+        <v>166524</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -5210,7 +5210,7 @@
         <v>21843</v>
       </c>
       <c r="B6" t="n">
-        <v>135605</v>
+        <v>166525</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -5285,7 +5285,7 @@
         <v>21843</v>
       </c>
       <c r="B7" t="n">
-        <v>135606</v>
+        <v>166526</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -5360,7 +5360,7 @@
         <v>21843</v>
       </c>
       <c r="B8" t="n">
-        <v>135607</v>
+        <v>166527</v>
       </c>
       <c r="C8" t="s">
         <v>108</v>
@@ -5435,7 +5435,7 @@
         <v>21843</v>
       </c>
       <c r="B9" t="n">
-        <v>135608</v>
+        <v>166528</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -5658,7 +5658,7 @@
         <v>21843</v>
       </c>
       <c r="B12" t="n">
-        <v>135609</v>
+        <v>166529</v>
       </c>
       <c r="C12" t="s">
         <v>145</v>
@@ -5733,7 +5733,7 @@
         <v>21843</v>
       </c>
       <c r="B13" t="n">
-        <v>135610</v>
+        <v>166530</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -5808,7 +5808,7 @@
         <v>21843</v>
       </c>
       <c r="B14" t="n">
-        <v>135611</v>
+        <v>166531</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -5883,7 +5883,7 @@
         <v>21843</v>
       </c>
       <c r="B15" t="n">
-        <v>135612</v>
+        <v>166532</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -5958,7 +5958,7 @@
         <v>21843</v>
       </c>
       <c r="B16" t="n">
-        <v>135613</v>
+        <v>166533</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -6033,7 +6033,7 @@
         <v>21843</v>
       </c>
       <c r="B17" t="n">
-        <v>135614</v>
+        <v>166534</v>
       </c>
       <c r="C17" t="s">
         <v>192</v>
@@ -6108,7 +6108,7 @@
         <v>21843</v>
       </c>
       <c r="B18" t="n">
-        <v>135615</v>
+        <v>166535</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
@@ -6183,7 +6183,7 @@
         <v>21843</v>
       </c>
       <c r="B19" t="n">
-        <v>135616</v>
+        <v>166536</v>
       </c>
       <c r="C19" t="s">
         <v>211</v>
@@ -6258,7 +6258,7 @@
         <v>21843</v>
       </c>
       <c r="B20" t="n">
-        <v>135617</v>
+        <v>166537</v>
       </c>
       <c r="C20" t="s">
         <v>220</v>
@@ -6333,7 +6333,7 @@
         <v>21843</v>
       </c>
       <c r="B21" t="n">
-        <v>135618</v>
+        <v>166538</v>
       </c>
       <c r="C21" t="s">
         <v>229</v>
@@ -6398,7 +6398,7 @@
         <v>21843</v>
       </c>
       <c r="B22" t="n">
-        <v>135619</v>
+        <v>166539</v>
       </c>
       <c r="C22" t="s">
         <v>238</v>
@@ -6473,7 +6473,7 @@
         <v>21843</v>
       </c>
       <c r="B23" t="n">
-        <v>135620</v>
+        <v>166540</v>
       </c>
       <c r="C23" t="s">
         <v>247</v>
@@ -6623,7 +6623,7 @@
         <v>21843</v>
       </c>
       <c r="B25" t="n">
-        <v>135621</v>
+        <v>166541</v>
       </c>
       <c r="C25" t="s">
         <v>267</v>
@@ -6698,7 +6698,7 @@
         <v>21843</v>
       </c>
       <c r="B26" t="n">
-        <v>135622</v>
+        <v>166542</v>
       </c>
       <c r="C26" t="s">
         <v>273</v>
@@ -6773,7 +6773,7 @@
         <v>21843</v>
       </c>
       <c r="B27" t="n">
-        <v>135623</v>
+        <v>166543</v>
       </c>
       <c r="C27" t="s">
         <v>283</v>
@@ -6848,7 +6848,7 @@
         <v>21843</v>
       </c>
       <c r="B28" t="n">
-        <v>135624</v>
+        <v>166544</v>
       </c>
       <c r="C28" t="s">
         <v>290</v>
@@ -6998,7 +6998,7 @@
         <v>21843</v>
       </c>
       <c r="B30" t="n">
-        <v>135625</v>
+        <v>166545</v>
       </c>
       <c r="C30" t="s">
         <v>309</v>
@@ -7073,7 +7073,7 @@
         <v>21843</v>
       </c>
       <c r="B31" t="n">
-        <v>135626</v>
+        <v>166546</v>
       </c>
       <c r="C31" t="s">
         <v>319</v>
@@ -7148,7 +7148,7 @@
         <v>21843</v>
       </c>
       <c r="B32" t="n">
-        <v>135627</v>
+        <v>166547</v>
       </c>
       <c r="C32" t="s">
         <v>329</v>
@@ -7223,7 +7223,7 @@
         <v>21843</v>
       </c>
       <c r="B33" t="n">
-        <v>135628</v>
+        <v>166548</v>
       </c>
       <c r="C33" t="s">
         <v>338</v>
@@ -7298,7 +7298,7 @@
         <v>21843</v>
       </c>
       <c r="B34" t="n">
-        <v>135629</v>
+        <v>166549</v>
       </c>
       <c r="C34" t="s">
         <v>344</v>
@@ -7373,7 +7373,7 @@
         <v>21843</v>
       </c>
       <c r="B35" t="n">
-        <v>135630</v>
+        <v>166550</v>
       </c>
       <c r="C35" t="s">
         <v>353</v>
@@ -7521,7 +7521,7 @@
         <v>21843</v>
       </c>
       <c r="B37" t="n">
-        <v>135631</v>
+        <v>166551</v>
       </c>
       <c r="C37" t="s">
         <v>369</v>
@@ -7586,7 +7586,7 @@
         <v>21843</v>
       </c>
       <c r="B38" t="n">
-        <v>135632</v>
+        <v>166552</v>
       </c>
       <c r="C38" t="s">
         <v>378</v>
@@ -7661,7 +7661,7 @@
         <v>21843</v>
       </c>
       <c r="B39" t="n">
-        <v>135633</v>
+        <v>166553</v>
       </c>
       <c r="C39" t="s">
         <v>388</v>
@@ -7811,7 +7811,7 @@
         <v>21843</v>
       </c>
       <c r="B41" t="n">
-        <v>135634</v>
+        <v>166554</v>
       </c>
       <c r="C41" t="s">
         <v>407</v>
@@ -7886,7 +7886,7 @@
         <v>21843</v>
       </c>
       <c r="B42" t="n">
-        <v>135635</v>
+        <v>166555</v>
       </c>
       <c r="C42" t="s">
         <v>417</v>
@@ -8034,7 +8034,7 @@
         <v>21843</v>
       </c>
       <c r="B44" t="n">
-        <v>135636</v>
+        <v>166556</v>
       </c>
       <c r="C44" t="s">
         <v>432</v>
@@ -8109,7 +8109,7 @@
         <v>21843</v>
       </c>
       <c r="B45" t="n">
-        <v>135637</v>
+        <v>166557</v>
       </c>
       <c r="C45" t="s">
         <v>442</v>
@@ -8184,7 +8184,7 @@
         <v>21843</v>
       </c>
       <c r="B46" t="n">
-        <v>135638</v>
+        <v>166558</v>
       </c>
       <c r="C46" t="s">
         <v>451</v>
@@ -8259,7 +8259,7 @@
         <v>21843</v>
       </c>
       <c r="B47" t="n">
-        <v>135639</v>
+        <v>166559</v>
       </c>
       <c r="C47" t="s">
         <v>460</v>
@@ -8334,7 +8334,7 @@
         <v>21843</v>
       </c>
       <c r="B48" t="n">
-        <v>135640</v>
+        <v>166560</v>
       </c>
       <c r="C48" t="s">
         <v>469</v>
@@ -8484,7 +8484,7 @@
         <v>21843</v>
       </c>
       <c r="B50" t="n">
-        <v>135641</v>
+        <v>166561</v>
       </c>
       <c r="C50" t="s">
         <v>486</v>
@@ -8557,7 +8557,7 @@
         <v>21843</v>
       </c>
       <c r="B51" t="n">
-        <v>135642</v>
+        <v>166562</v>
       </c>
       <c r="C51" t="s">
         <v>496</v>
@@ -8632,7 +8632,7 @@
         <v>21843</v>
       </c>
       <c r="B52" t="n">
-        <v>135643</v>
+        <v>166563</v>
       </c>
       <c r="C52" t="s">
         <v>502</v>
@@ -8707,7 +8707,7 @@
         <v>21843</v>
       </c>
       <c r="B53" t="n">
-        <v>135644</v>
+        <v>166564</v>
       </c>
       <c r="C53" t="s">
         <v>511</v>
@@ -8853,7 +8853,7 @@
         <v>21843</v>
       </c>
       <c r="B55" t="n">
-        <v>135645</v>
+        <v>166565</v>
       </c>
       <c r="C55" t="s">
         <v>529</v>
@@ -8924,7 +8924,7 @@
         <v>21843</v>
       </c>
       <c r="B56" t="n">
-        <v>135646</v>
+        <v>166566</v>
       </c>
       <c r="C56" t="s">
         <v>538</v>
@@ -8995,7 +8995,7 @@
         <v>21843</v>
       </c>
       <c r="B57" t="n">
-        <v>135647</v>
+        <v>166567</v>
       </c>
       <c r="C57" t="s">
         <v>548</v>
@@ -9220,7 +9220,7 @@
         <v>21843</v>
       </c>
       <c r="B60" t="n">
-        <v>135648</v>
+        <v>166568</v>
       </c>
       <c r="C60" t="s">
         <v>575</v>
@@ -9285,7 +9285,7 @@
         <v>21843</v>
       </c>
       <c r="B61" t="n">
-        <v>135649</v>
+        <v>166569</v>
       </c>
       <c r="C61" t="s">
         <v>584</v>
@@ -9360,7 +9360,7 @@
         <v>21843</v>
       </c>
       <c r="B62" t="n">
-        <v>135650</v>
+        <v>166570</v>
       </c>
       <c r="C62" t="s">
         <v>591</v>
@@ -9431,7 +9431,7 @@
         <v>21843</v>
       </c>
       <c r="B63" t="n">
-        <v>135651</v>
+        <v>166571</v>
       </c>
       <c r="C63" t="s">
         <v>599</v>
@@ -9581,7 +9581,7 @@
         <v>21843</v>
       </c>
       <c r="B65" t="n">
-        <v>135652</v>
+        <v>166572</v>
       </c>
       <c r="C65" t="s">
         <v>614</v>
@@ -9731,7 +9731,7 @@
         <v>21843</v>
       </c>
       <c r="B67" t="n">
-        <v>135653</v>
+        <v>166573</v>
       </c>
       <c r="C67" t="s">
         <v>632</v>
@@ -9806,7 +9806,7 @@
         <v>21843</v>
       </c>
       <c r="B68" t="n">
-        <v>135654</v>
+        <v>166574</v>
       </c>
       <c r="C68" t="s">
         <v>639</v>
@@ -9881,7 +9881,7 @@
         <v>21843</v>
       </c>
       <c r="B69" t="n">
-        <v>135655</v>
+        <v>166575</v>
       </c>
       <c r="C69" t="s">
         <v>648</v>
@@ -9956,7 +9956,7 @@
         <v>21843</v>
       </c>
       <c r="B70" t="n">
-        <v>135656</v>
+        <v>166576</v>
       </c>
       <c r="C70" t="s">
         <v>655</v>
@@ -10102,7 +10102,7 @@
         <v>21843</v>
       </c>
       <c r="B72" t="n">
-        <v>135657</v>
+        <v>166577</v>
       </c>
       <c r="C72" t="s">
         <v>672</v>
@@ -10171,7 +10171,7 @@
         <v>21843</v>
       </c>
       <c r="B73" t="n">
-        <v>135658</v>
+        <v>166578</v>
       </c>
       <c r="C73" t="s">
         <v>679</v>
@@ -10236,7 +10236,7 @@
         <v>21843</v>
       </c>
       <c r="B74" t="n">
-        <v>135659</v>
+        <v>166579</v>
       </c>
       <c r="C74" t="s">
         <v>686</v>
@@ -10372,7 +10372,7 @@
         <v>21843</v>
       </c>
       <c r="B76" t="n">
-        <v>135660</v>
+        <v>166580</v>
       </c>
       <c r="C76" t="s">
         <v>704</v>
@@ -10439,7 +10439,7 @@
         <v>21843</v>
       </c>
       <c r="B77" t="n">
-        <v>135661</v>
+        <v>166581</v>
       </c>
       <c r="C77" t="s">
         <v>711</v>
@@ -10514,7 +10514,7 @@
         <v>21843</v>
       </c>
       <c r="B78" t="n">
-        <v>135662</v>
+        <v>166582</v>
       </c>
       <c r="C78" t="s">
         <v>719</v>
@@ -10589,7 +10589,7 @@
         <v>21843</v>
       </c>
       <c r="B79" t="n">
-        <v>135663</v>
+        <v>166583</v>
       </c>
       <c r="C79" t="s">
         <v>725</v>
@@ -10664,7 +10664,7 @@
         <v>21843</v>
       </c>
       <c r="B80" t="n">
-        <v>135664</v>
+        <v>166584</v>
       </c>
       <c r="C80" t="s">
         <v>732</v>
@@ -10739,7 +10739,7 @@
         <v>21843</v>
       </c>
       <c r="B81" t="n">
-        <v>135665</v>
+        <v>166585</v>
       </c>
       <c r="C81" t="s">
         <v>741</v>
@@ -10889,7 +10889,7 @@
         <v>21843</v>
       </c>
       <c r="B83" t="n">
-        <v>135666</v>
+        <v>166586</v>
       </c>
       <c r="C83" t="s">
         <v>760</v>
@@ -10964,7 +10964,7 @@
         <v>21843</v>
       </c>
       <c r="B84" t="n">
-        <v>135667</v>
+        <v>166587</v>
       </c>
       <c r="C84" t="s">
         <v>770</v>
@@ -11039,7 +11039,7 @@
         <v>21843</v>
       </c>
       <c r="B85" t="n">
-        <v>135668</v>
+        <v>166588</v>
       </c>
       <c r="C85" t="s">
         <v>777</v>
@@ -11114,7 +11114,7 @@
         <v>21843</v>
       </c>
       <c r="B86" t="n">
-        <v>135669</v>
+        <v>166589</v>
       </c>
       <c r="C86" t="s">
         <v>784</v>
@@ -11189,7 +11189,7 @@
         <v>21843</v>
       </c>
       <c r="B87" t="n">
-        <v>135670</v>
+        <v>166590</v>
       </c>
       <c r="C87" t="s">
         <v>791</v>
@@ -11264,7 +11264,7 @@
         <v>21843</v>
       </c>
       <c r="B88" t="n">
-        <v>135671</v>
+        <v>166591</v>
       </c>
       <c r="C88" t="s">
         <v>801</v>
@@ -11339,7 +11339,7 @@
         <v>21843</v>
       </c>
       <c r="B89" t="n">
-        <v>135672</v>
+        <v>166592</v>
       </c>
       <c r="C89" t="s">
         <v>810</v>
@@ -11414,7 +11414,7 @@
         <v>21843</v>
       </c>
       <c r="B90" t="n">
-        <v>135673</v>
+        <v>166593</v>
       </c>
       <c r="C90" t="s">
         <v>819</v>
@@ -11489,7 +11489,7 @@
         <v>21843</v>
       </c>
       <c r="B91" t="n">
-        <v>135674</v>
+        <v>166594</v>
       </c>
       <c r="C91" t="s">
         <v>826</v>
@@ -11558,7 +11558,7 @@
         <v>21843</v>
       </c>
       <c r="B92" t="n">
-        <v>135675</v>
+        <v>166595</v>
       </c>
       <c r="C92" t="s">
         <v>832</v>
@@ -11783,7 +11783,7 @@
         <v>21843</v>
       </c>
       <c r="B95" t="n">
-        <v>135676</v>
+        <v>166596</v>
       </c>
       <c r="C95" t="s">
         <v>858</v>
@@ -11848,7 +11848,7 @@
         <v>21843</v>
       </c>
       <c r="B96" t="n">
-        <v>135677</v>
+        <v>166597</v>
       </c>
       <c r="C96" t="s">
         <v>868</v>
@@ -11923,7 +11923,7 @@
         <v>21843</v>
       </c>
       <c r="B97" t="n">
-        <v>135678</v>
+        <v>166598</v>
       </c>
       <c r="C97" t="s">
         <v>875</v>
@@ -11998,7 +11998,7 @@
         <v>21843</v>
       </c>
       <c r="B98" t="n">
-        <v>135679</v>
+        <v>166599</v>
       </c>
       <c r="C98" t="s">
         <v>882</v>
@@ -12073,7 +12073,7 @@
         <v>21843</v>
       </c>
       <c r="B99" t="n">
-        <v>135680</v>
+        <v>166600</v>
       </c>
       <c r="C99" t="s">
         <v>890</v>
@@ -12148,7 +12148,7 @@
         <v>21843</v>
       </c>
       <c r="B100" t="n">
-        <v>135681</v>
+        <v>166601</v>
       </c>
       <c r="C100" t="s">
         <v>897</v>
@@ -12442,7 +12442,7 @@
         <v>21843</v>
       </c>
       <c r="B104" t="n">
-        <v>135682</v>
+        <v>166602</v>
       </c>
       <c r="C104" t="s">
         <v>931</v>
@@ -12513,7 +12513,7 @@
         <v>21843</v>
       </c>
       <c r="B105" t="n">
-        <v>135683</v>
+        <v>166603</v>
       </c>
       <c r="C105" t="s">
         <v>938</v>
@@ -12582,7 +12582,7 @@
         <v>21843</v>
       </c>
       <c r="B106" t="n">
-        <v>135684</v>
+        <v>166604</v>
       </c>
       <c r="C106" t="s">
         <v>948</v>
@@ -12657,7 +12657,7 @@
         <v>21843</v>
       </c>
       <c r="B107" t="n">
-        <v>135685</v>
+        <v>166605</v>
       </c>
       <c r="C107" t="s">
         <v>958</v>
@@ -12732,7 +12732,7 @@
         <v>21843</v>
       </c>
       <c r="B108" t="n">
-        <v>135686</v>
+        <v>166606</v>
       </c>
       <c r="C108" t="s">
         <v>968</v>
@@ -12807,7 +12807,7 @@
         <v>21843</v>
       </c>
       <c r="B109" t="n">
-        <v>135687</v>
+        <v>166607</v>
       </c>
       <c r="C109" t="s">
         <v>977</v>
@@ -12882,7 +12882,7 @@
         <v>21843</v>
       </c>
       <c r="B110" t="n">
-        <v>135688</v>
+        <v>166608</v>
       </c>
       <c r="C110" t="s">
         <v>987</v>
@@ -13107,7 +13107,7 @@
         <v>21843</v>
       </c>
       <c r="B113" t="n">
-        <v>135689</v>
+        <v>166609</v>
       </c>
       <c r="C113" t="s">
         <v>1013</v>
@@ -13182,7 +13182,7 @@
         <v>21843</v>
       </c>
       <c r="B114" t="n">
-        <v>135690</v>
+        <v>166610</v>
       </c>
       <c r="C114" t="s">
         <v>1023</v>
@@ -13253,7 +13253,7 @@
         <v>21843</v>
       </c>
       <c r="B115" t="n">
-        <v>135691</v>
+        <v>166611</v>
       </c>
       <c r="C115" t="s">
         <v>1030</v>
@@ -13324,7 +13324,7 @@
         <v>21843</v>
       </c>
       <c r="B116" t="n">
-        <v>135692</v>
+        <v>166612</v>
       </c>
       <c r="C116" t="s">
         <v>1037</v>
@@ -13399,7 +13399,7 @@
         <v>21843</v>
       </c>
       <c r="B117" t="n">
-        <v>135693</v>
+        <v>166613</v>
       </c>
       <c r="C117" t="s">
         <v>1046</v>
@@ -13474,7 +13474,7 @@
         <v>21843</v>
       </c>
       <c r="B118" t="n">
-        <v>135694</v>
+        <v>166614</v>
       </c>
       <c r="C118" t="s">
         <v>1054</v>
@@ -13549,7 +13549,7 @@
         <v>21843</v>
       </c>
       <c r="B119" t="n">
-        <v>135695</v>
+        <v>166615</v>
       </c>
       <c r="C119" t="s">
         <v>1064</v>
@@ -13849,7 +13849,7 @@
         <v>21843</v>
       </c>
       <c r="B123" t="n">
-        <v>135696</v>
+        <v>166616</v>
       </c>
       <c r="C123" t="s">
         <v>1097</v>
@@ -13924,7 +13924,7 @@
         <v>21843</v>
       </c>
       <c r="B124" t="n">
-        <v>135697</v>
+        <v>166617</v>
       </c>
       <c r="C124" t="s">
         <v>1104</v>
@@ -13999,7 +13999,7 @@
         <v>21843</v>
       </c>
       <c r="B125" t="n">
-        <v>135698</v>
+        <v>166618</v>
       </c>
       <c r="C125" t="s">
         <v>1111</v>
@@ -14074,7 +14074,7 @@
         <v>21843</v>
       </c>
       <c r="B126" t="n">
-        <v>135699</v>
+        <v>166619</v>
       </c>
       <c r="C126" t="s">
         <v>1121</v>
@@ -14285,7 +14285,7 @@
         <v>21843</v>
       </c>
       <c r="B129" t="n">
-        <v>135700</v>
+        <v>166620</v>
       </c>
       <c r="C129" t="s">
         <v>1146</v>
@@ -14360,7 +14360,7 @@
         <v>21843</v>
       </c>
       <c r="B130" t="n">
-        <v>135701</v>
+        <v>166621</v>
       </c>
       <c r="C130" t="s">
         <v>1156</v>
@@ -14435,7 +14435,7 @@
         <v>21843</v>
       </c>
       <c r="B131" t="n">
-        <v>135702</v>
+        <v>166622</v>
       </c>
       <c r="C131" t="s">
         <v>1164</v>
@@ -14581,7 +14581,7 @@
         <v>21843</v>
       </c>
       <c r="B133" t="n">
-        <v>135703</v>
+        <v>166623</v>
       </c>
       <c r="C133" t="s">
         <v>1179</v>
@@ -14711,7 +14711,7 @@
         <v>21843</v>
       </c>
       <c r="B135" t="n">
-        <v>135704</v>
+        <v>166624</v>
       </c>
       <c r="C135" t="s">
         <v>1197</v>
@@ -14772,7 +14772,7 @@
         <v>21843</v>
       </c>
       <c r="B136" t="n">
-        <v>135705</v>
+        <v>166625</v>
       </c>
       <c r="C136" t="s">
         <v>1204</v>
@@ -14847,7 +14847,7 @@
         <v>21843</v>
       </c>
       <c r="B137" t="n">
-        <v>135706</v>
+        <v>166626</v>
       </c>
       <c r="C137" t="s">
         <v>1213</v>
@@ -14922,7 +14922,7 @@
         <v>21843</v>
       </c>
       <c r="B138" t="n">
-        <v>135707</v>
+        <v>166627</v>
       </c>
       <c r="C138" t="s">
         <v>1223</v>
@@ -15072,7 +15072,7 @@
         <v>21843</v>
       </c>
       <c r="B140" t="n">
-        <v>135708</v>
+        <v>166628</v>
       </c>
       <c r="C140" t="s">
         <v>1240</v>
@@ -15210,7 +15210,7 @@
         <v>21843</v>
       </c>
       <c r="B142" t="n">
-        <v>135709</v>
+        <v>166629</v>
       </c>
       <c r="C142" t="s">
         <v>1256</v>
@@ -15433,7 +15433,7 @@
         <v>21843</v>
       </c>
       <c r="B145" t="n">
-        <v>135710</v>
+        <v>166630</v>
       </c>
       <c r="C145" t="s">
         <v>1285</v>
@@ -15504,7 +15504,7 @@
         <v>21843</v>
       </c>
       <c r="B146" t="n">
-        <v>135711</v>
+        <v>135636</v>
       </c>
       <c r="C146" t="s">
         <v>1294</v>
@@ -15654,7 +15654,7 @@
         <v>21843</v>
       </c>
       <c r="B148" t="n">
-        <v>135712</v>
+        <v>166631</v>
       </c>
       <c r="C148" t="s">
         <v>1313</v>
@@ -15802,7 +15802,7 @@
         <v>21843</v>
       </c>
       <c r="B150" t="n">
-        <v>135713</v>
+        <v>166632</v>
       </c>
       <c r="C150" t="s">
         <v>1329</v>
@@ -15877,7 +15877,7 @@
         <v>21843</v>
       </c>
       <c r="B151" t="n">
-        <v>135710</v>
+        <v>135636</v>
       </c>
       <c r="C151" t="s">
         <v>1294</v>
@@ -16173,7 +16173,7 @@
         <v>21843</v>
       </c>
       <c r="B155" t="n">
-        <v>135714</v>
+        <v>166633</v>
       </c>
       <c r="C155" t="s">
         <v>1367</v>
@@ -16248,7 +16248,7 @@
         <v>21843</v>
       </c>
       <c r="B156" t="n">
-        <v>135715</v>
+        <v>166634</v>
       </c>
       <c r="C156" t="s">
         <v>1375</v>
@@ -16323,7 +16323,7 @@
         <v>21843</v>
       </c>
       <c r="B157" t="n">
-        <v>135716</v>
+        <v>166635</v>
       </c>
       <c r="C157" t="s">
         <v>1383</v>
@@ -16467,7 +16467,7 @@
         <v>21843</v>
       </c>
       <c r="B159" t="n">
-        <v>135717</v>
+        <v>166636</v>
       </c>
       <c r="C159" t="s">
         <v>1398</v>
@@ -16528,7 +16528,7 @@
         <v>21843</v>
       </c>
       <c r="B160" t="n">
-        <v>135718</v>
+        <v>166637</v>
       </c>
       <c r="C160" t="s">
         <v>1405</v>
@@ -16597,7 +16597,7 @@
         <v>21843</v>
       </c>
       <c r="B161" t="n">
-        <v>135719</v>
+        <v>166638</v>
       </c>
       <c r="C161" t="s">
         <v>1412</v>
@@ -16865,7 +16865,7 @@
         <v>21843</v>
       </c>
       <c r="B165" t="n">
-        <v>135720</v>
+        <v>166639</v>
       </c>
       <c r="C165" t="s">
         <v>1438</v>
